--- a/Stock/src/main/resources/layout/LayoutPosicion(Puestos).xlsx
+++ b/Stock/src/main/resources/layout/LayoutPosicion(Puestos).xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogo Puestos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Nombre</t>
   </si>
@@ -38,6 +42,9 @@
   </si>
   <si>
     <t>Producción</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -378,7 +385,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,20 +405,32 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
